--- a/Grocery-Expenses-in-Germany.xlsx
+++ b/Grocery-Expenses-in-Germany.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibeeshVenu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36BAD66-8E30-4B73-8454-E6A14B4BA87F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8723E954-C5BF-47E4-89D3-3E4EE1068551}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{D3914E09-01E5-4D1B-9022-71A896F4363E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t xml:space="preserve">Item Name </t>
   </si>
@@ -141,10 +141,13 @@
     <t>The value in INR is calculated on basis of rates on July 7th, 2019</t>
   </si>
   <si>
-    <t>You can download this file from https://njan-oru-malayali.com/grocery-expenses-in-germany.xlsx</t>
-  </si>
-  <si>
     <t>1 EUR = 76.88 INR</t>
+  </si>
+  <si>
+    <t>You can download this file from https://njan-oru-malayali.com/Grocery-Expenses-in-Germany.xlsx?raw=true</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -603,7 +606,7 @@
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.9296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,9 +640,12 @@
       <c r="D2" s="7">
         <v>3.95</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7">
+        <f>D2*76.88</f>
+        <v>303.67599999999999</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -662,7 +668,10 @@
       <c r="D3" s="7">
         <v>11.5</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E27" si="0">D3*76.88</f>
+        <v>884.11999999999989</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -685,7 +694,10 @@
       <c r="D4" s="7">
         <v>3.99</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>306.75119999999998</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -708,7 +720,10 @@
       <c r="D5" s="7">
         <v>0.79</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>60.735199999999999</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -731,7 +746,10 @@
       <c r="D6" s="7">
         <v>1.69</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>129.9272</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -754,7 +772,10 @@
       <c r="D7" s="7">
         <v>0.99</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>76.111199999999997</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -777,7 +798,10 @@
       <c r="D8" s="7">
         <v>0.99</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>76.111199999999997</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -800,7 +824,10 @@
       <c r="D9" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>84.567999999999998</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -823,7 +850,10 @@
       <c r="D10" s="7">
         <v>1.29</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>99.175200000000004</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -846,7 +876,10 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>76.88</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -869,7 +902,10 @@
       <c r="D12" s="7">
         <v>6</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>461.28</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -892,7 +928,10 @@
       <c r="D13" s="7">
         <v>1.98</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>152.22239999999999</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -915,7 +954,10 @@
       <c r="D14" s="7">
         <v>7.29</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>560.45519999999999</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -938,7 +980,10 @@
       <c r="D15" s="7">
         <v>2.69</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>206.80719999999999</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -961,7 +1006,10 @@
       <c r="D16" s="7">
         <v>3.98</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>305.98239999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
@@ -976,7 +1024,10 @@
       <c r="D17" s="7">
         <v>1.79</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>137.61519999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
@@ -991,9 +1042,12 @@
       <c r="D18" s="7">
         <v>1.29</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>99.175200000000004</v>
+      </c>
       <c r="G18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1014,7 +1068,10 @@
       <c r="D19" s="7">
         <v>1.89</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>145.30319999999998</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1035,7 +1092,10 @@
       <c r="D20" s="7">
         <v>2.89</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>222.1832</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
@@ -1050,7 +1110,10 @@
       <c r="D21" s="7">
         <v>3.29</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>252.93519999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
@@ -1065,7 +1128,10 @@
       <c r="D22" s="7">
         <v>2.79</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>214.49519999999998</v>
+      </c>
       <c r="F22" s="10" t="s">
         <v>35</v>
       </c>
@@ -1091,7 +1157,10 @@
       <c r="D23" s="7">
         <v>0.99</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>76.111199999999997</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1115,7 +1184,10 @@
       <c r="D24" s="7">
         <v>3.8</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>292.14399999999995</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1139,7 +1211,10 @@
       <c r="D25" s="7">
         <v>1.99</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>152.99119999999999</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1163,7 +1238,10 @@
       <c r="D26" s="7">
         <v>2.99</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>229.87120000000002</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1175,11 +1253,18 @@
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="7">
+        <v>72.94</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>5607.6271999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
